--- a/file/G11-79 7406104-E1/data_input.xlsx
+++ b/file/G11-79 7406104-E1/data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="11320"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -983,10 +983,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1007,7 +1007,7 @@
         <v>382</v>
       </c>
       <c r="C2" s="2">
-        <v>12000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1018,7 +1018,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="2">
-        <v>9400</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>11200</v>
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>
